--- a/data/fr/parsed/bad/FR_3.xlsx
+++ b/data/fr/parsed/bad/FR_3.xlsx
@@ -7,23 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacity_DL" sheetId="1" r:id="rId1"/>
-    <sheet name="Capacity_UL" sheetId="2" r:id="rId2"/>
-    <sheet name="FTP_DL" sheetId="3" r:id="rId3"/>
-    <sheet name="HTTP_Browser" sheetId="4" r:id="rId4"/>
-    <sheet name="RSCP" sheetId="5" r:id="rId5"/>
-    <sheet name="ECLO" sheetId="6" r:id="rId6"/>
-    <sheet name="RSRP" sheetId="7" r:id="rId7"/>
-    <sheet name="RSRQ" sheetId="8" r:id="rId8"/>
-    <sheet name="RxLvl" sheetId="9" r:id="rId9"/>
-    <sheet name="RxQual" sheetId="10" r:id="rId10"/>
+    <sheet name="RSRP" sheetId="1" r:id="rId1"/>
+    <sheet name="RSRQ" sheetId="2" r:id="rId2"/>
+    <sheet name="RSCP" sheetId="3" r:id="rId3"/>
+    <sheet name="ECLO" sheetId="4" r:id="rId4"/>
+    <sheet name="RxLvl" sheetId="5" r:id="rId5"/>
+    <sheet name="RxQual" sheetId="6" r:id="rId6"/>
+    <sheet name="FTP_DL" sheetId="7" r:id="rId7"/>
+    <sheet name="Capacity_DL" sheetId="8" r:id="rId8"/>
+    <sheet name="Capacity_UL" sheetId="9" r:id="rId9"/>
+    <sheet name="HTTP_Browser" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="62">
   <si>
     <t>SOURCE</t>
   </si>
@@ -70,69 +70,96 @@
     <t>ADevice</t>
   </si>
   <si>
+    <t>MsgTime_lte</t>
+  </si>
+  <si>
+    <t>MsgTime</t>
+  </si>
+  <si>
+    <t>PosId</t>
+  </si>
+  <si>
+    <t>FileId</t>
+  </si>
+  <si>
+    <t>BTSLon</t>
+  </si>
+  <si>
+    <t>BTSLat</t>
+  </si>
+  <si>
+    <t>BTSLonDiff</t>
+  </si>
+  <si>
+    <t>BTSLatDiff</t>
+  </si>
+  <si>
+    <t>BTSDist</t>
+  </si>
+  <si>
+    <t>BTS2LonDiff</t>
+  </si>
+  <si>
+    <t>BTS2LatDiff</t>
+  </si>
+  <si>
+    <t>BTS2Dist</t>
+  </si>
+  <si>
+    <t>BTS3LonDiff</t>
+  </si>
+  <si>
+    <t>BTS3LatDiff</t>
+  </si>
+  <si>
+    <t>BTS3Dist</t>
+  </si>
+  <si>
+    <t>BTSTech</t>
+  </si>
+  <si>
+    <t>FloorPlanName</t>
+  </si>
+  <si>
+    <t>FloorPlanLevel</t>
+  </si>
+  <si>
+    <t>SessionIdLP</t>
+  </si>
+  <si>
+    <t>TestIdLP</t>
+  </si>
+  <si>
+    <t>PosIdLP</t>
+  </si>
+  <si>
+    <t>NetworkIdLP</t>
+  </si>
+  <si>
+    <t>NumMeasuredCells</t>
+  </si>
+  <si>
+    <t>RSRP</t>
+  </si>
+  <si>
+    <t>ChPSC</t>
+  </si>
+  <si>
+    <t>RSRQ</t>
+  </si>
+  <si>
+    <t>ChnPCI</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>PosId</t>
-  </si>
-  <si>
-    <t>FileId</t>
-  </si>
-  <si>
-    <t>BTSLon</t>
-  </si>
-  <si>
-    <t>BTSLat</t>
-  </si>
-  <si>
-    <t>BTSLonDiff</t>
-  </si>
-  <si>
-    <t>BTSLatDiff</t>
-  </si>
-  <si>
-    <t>BTSDist</t>
-  </si>
-  <si>
-    <t>BTS2LonDiff</t>
-  </si>
-  <si>
-    <t>BTS2LatDiff</t>
-  </si>
-  <si>
-    <t>BTS2Dist</t>
-  </si>
-  <si>
-    <t>BTS3LonDiff</t>
-  </si>
-  <si>
-    <t>BTS3LatDiff</t>
-  </si>
-  <si>
-    <t>BTS3Dist</t>
-  </si>
-  <si>
-    <t>BTSTech</t>
-  </si>
-  <si>
-    <t>FloorPlanName</t>
-  </si>
-  <si>
-    <t>FloorPlanLevel</t>
-  </si>
-  <si>
-    <t>SessionIdLP</t>
-  </si>
-  <si>
-    <t>TestIdLP</t>
-  </si>
-  <si>
-    <t>PosIdLP</t>
-  </si>
-  <si>
-    <t>NetworkIdLP</t>
-  </si>
-  <si>
     <t>AvgRSCP</t>
   </si>
   <si>
@@ -142,25 +169,46 @@
     <t>numCells</t>
   </si>
   <si>
-    <t>ChPSC</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>RSRP</t>
-  </si>
-  <si>
-    <t>NumMeasuredCells</t>
-  </si>
-  <si>
-    <t>RSRQ</t>
-  </si>
-  <si>
-    <t>ChnPCI</t>
+    <t>RxLev</t>
+  </si>
+  <si>
+    <t>RxQual</t>
+  </si>
+  <si>
+    <t>ChNr</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>errorcode</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>DLThrpt</t>
+  </si>
+  <si>
+    <t>URICount</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ULThrpt</t>
   </si>
 </sst>
 </file>
@@ -518,12 +566,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -542,12 +725,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AS1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -566,18 +884,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -631,85 +937,85 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -717,148 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AQ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:43">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AP1"/>
   <sheetViews>
@@ -913,82 +1078,82 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AP1"/>
   <sheetViews>
@@ -1051,82 +1216,370 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AR1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:44">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AR1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:44">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1136,12 +1589,144 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AR1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:44">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>